--- a/medicine/Premiers secours et secourisme/Station_de_sauvetage/Station_de_sauvetage.xlsx
+++ b/medicine/Premiers secours et secourisme/Station_de_sauvetage/Station_de_sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une station de sauvetage est un bâtiment ou un ensemble de bâtiments où sont basées des personnes chargées de la recherche et du sauvetage en mer ou sur un plan d'eau donné.
 </t>
